--- a/controllers/upload_data_old.xlsx
+++ b/controllers/upload_data_old.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="402">
   <si>
     <t>Company</t>
   </si>
@@ -70,6 +70,1161 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>Suzhou TOMIND Medical Technologies Co., Ltd.</t>
+  </si>
+  <si>
+    <t>info@tomindmed.com</t>
+  </si>
+  <si>
+    <t>https://www.tomindmed.com/</t>
+  </si>
+  <si>
+    <t>Custom Extrusion</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>https://www.medica-tradefair.com/en/Exhibitors_Products/Exhibitor_index_A-Z, 2023</t>
+  </si>
+  <si>
+    <t>Anderson Bueno</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>+86 215164 18516242690, +86 18516242690</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>F-E</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Suzhou Vdo Biotech Co.,Ltd</t>
+  </si>
+  <si>
+    <t>grace.xu@vdobiotech.com</t>
+  </si>
+  <si>
+    <t>https://www.vdobiotech.com/</t>
+  </si>
+  <si>
+    <t>Instruments And Equipments</t>
+  </si>
+  <si>
+    <t>Grace Xu</t>
+  </si>
+  <si>
+    <t>International Sales Manager</t>
+  </si>
+  <si>
+    <t>+86 512 80905220</t>
+  </si>
+  <si>
+    <t>vdo@vdotech.com</t>
+  </si>
+  <si>
+    <t>Rose Peng</t>
+  </si>
+  <si>
+    <t>Global Sales Director</t>
+  </si>
+  <si>
+    <t>Suzhou Shenyun Medical Equipment Co.,Ltd</t>
+  </si>
+  <si>
+    <t>jack@symedical.com.cn</t>
+  </si>
+  <si>
+    <t>https://shenyunmedical.com/</t>
+  </si>
+  <si>
+    <t>3-way Silicone Foley Catheter</t>
+  </si>
+  <si>
+    <t>Jack Liu</t>
+  </si>
+  <si>
+    <t>General Manager</t>
+  </si>
+  <si>
+    <t>Suzhou Sunmed  Co.Ltd</t>
+  </si>
+  <si>
+    <t>sale@szsunmed.com</t>
+  </si>
+  <si>
+    <t>http://www.szsunmed.com</t>
+  </si>
+  <si>
+    <t>Medical Instrument</t>
+  </si>
+  <si>
+    <t>Dirk Jin</t>
+  </si>
+  <si>
+    <t>Manager Of Sales</t>
+  </si>
+  <si>
+    <t>+86 512 67571056</t>
+  </si>
+  <si>
+    <t>Suzhou Pulikang Medical Device Co., Ltd</t>
+  </si>
+  <si>
+    <t>xumin@pulihealth.com</t>
+  </si>
+  <si>
+    <t>http://www.pulihealth.com</t>
+  </si>
+  <si>
+    <t>Medical and General Care Products</t>
+  </si>
+  <si>
+    <t>Xumin</t>
+  </si>
+  <si>
+    <t>+86 512 52580206, +86 13814948045</t>
+  </si>
+  <si>
+    <t>SW Sustainability Solutions Inc</t>
+  </si>
+  <si>
+    <t>mvansunder@swssglobal.com</t>
+  </si>
+  <si>
+    <t>https://swssglobal.com</t>
+  </si>
+  <si>
+    <t>Mechanical Protection Gloves</t>
+  </si>
+  <si>
+    <t>Michael van Sunder</t>
+  </si>
+  <si>
+    <t>Commercial Operations Director</t>
+  </si>
+  <si>
+    <t>+1 510-443-0213</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>F-E/contact name available on Website</t>
+  </si>
+  <si>
+    <t>kwaskin@swssglobal.com</t>
+  </si>
+  <si>
+    <t>Kyle Waskin</t>
+  </si>
+  <si>
+    <t>Digital Marketing Specialist</t>
+  </si>
+  <si>
+    <t>+1 586-295-1509</t>
+  </si>
+  <si>
+    <t>wdushan@swssglobal.com</t>
+  </si>
+  <si>
+    <t>Wekasinghe Dushan</t>
+  </si>
+  <si>
+    <t>Senior Manager of Technology</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Xi'an Taibo Laser Beauty Company</t>
+  </si>
+  <si>
+    <t>amber@taibobeauty.com</t>
+  </si>
+  <si>
+    <t>https://www.taibobeauty.com/</t>
+  </si>
+  <si>
+    <t>Medical Equipment</t>
+  </si>
+  <si>
+    <t>https://dubaiderma.com/exhibitors/, 2024</t>
+  </si>
+  <si>
+    <t>Amber Guo</t>
+  </si>
+  <si>
+    <t>Sales Manager</t>
+  </si>
+  <si>
+    <t>+86 2986677223</t>
+  </si>
+  <si>
+    <t>+86 13991844620 (W)</t>
+  </si>
+  <si>
+    <t>shadow@taibobeauty.com</t>
+  </si>
+  <si>
+    <t>Shadow Li</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>shaly@taibobeauty.com</t>
+  </si>
+  <si>
+    <t>Shaly Ke</t>
+  </si>
+  <si>
+    <t>Zhengzhou Bestview Laser Co., Ltd</t>
+  </si>
+  <si>
+    <t>info@bestviewlaser.com</t>
+  </si>
+  <si>
+    <t>https://www.bvlaser.com/</t>
+  </si>
+  <si>
+    <t>Cutting-Edge Laser Equipment For Laser</t>
+  </si>
+  <si>
+    <t>Bruce Kim</t>
+  </si>
+  <si>
+    <t>+86 19503817280 (W)</t>
+  </si>
+  <si>
+    <t>Wizmedi Co.,Ltd</t>
+  </si>
+  <si>
+    <t>wizmedisales@wizmedi.kr</t>
+  </si>
+  <si>
+    <t>http://www.wizmedi.kr/</t>
+  </si>
+  <si>
+    <t>Skin Care Products</t>
+  </si>
+  <si>
+    <t>Choi Yong-Hun</t>
+  </si>
+  <si>
+    <t>+82 53-816-1124</t>
+  </si>
+  <si>
+    <t>Korea, South</t>
+  </si>
+  <si>
+    <t>admin@taibobeauty.com</t>
+  </si>
+  <si>
+    <t>Yuma Medical LP</t>
+  </si>
+  <si>
+    <t>contact@yumamedical.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.yumamedical.co.uk/</t>
+  </si>
+  <si>
+    <t>Finished Medical Devices</t>
+  </si>
+  <si>
+    <t>+44 793 9834353</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>brucekim@bestviewlaser.com</t>
+  </si>
+  <si>
+    <t>+86 15981977194 (W), +86 19503817280 (W)</t>
+  </si>
+  <si>
+    <t>WiQo</t>
+  </si>
+  <si>
+    <t>wiqo@wiqo.com</t>
+  </si>
+  <si>
+    <t>https://www.wiqo.com/</t>
+  </si>
+  <si>
+    <t>Medical Devices</t>
+  </si>
+  <si>
+    <t>+39 40 360408</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>olive@taibobeauty.com</t>
+  </si>
+  <si>
+    <t>Oliver Jie</t>
+  </si>
+  <si>
+    <t>sarah@bestviewlaser.com</t>
+  </si>
+  <si>
+    <t>Sarah Meng</t>
+  </si>
+  <si>
+    <t>coco@bestviewlaser.com</t>
+  </si>
+  <si>
+    <t>Coco Chen</t>
+  </si>
+  <si>
+    <t>Regional Sales Manager</t>
+  </si>
+  <si>
+    <t>contact@wiqo.com</t>
+  </si>
+  <si>
+    <t>Zishel Group</t>
+  </si>
+  <si>
+    <t>info@zishel.com</t>
+  </si>
+  <si>
+    <t>https://www.zishel.com/</t>
+  </si>
+  <si>
+    <t>Biopharmaceutical And Aesthetic Device</t>
+  </si>
+  <si>
+    <t>Jimmy Kim</t>
+  </si>
+  <si>
+    <t>+82 2-579-8903</t>
+  </si>
+  <si>
+    <t>Intex Medical Supplies (k) Ltd</t>
+  </si>
+  <si>
+    <t>intexmedical@gmail.com</t>
+  </si>
+  <si>
+    <t>MEDEXPO KENYA 2024 - VISITOR INQUIRY</t>
+  </si>
+  <si>
+    <t>Simon P.Mshighati</t>
+  </si>
+  <si>
+    <t>+254 701 478084</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Visitors-Inq</t>
+  </si>
+  <si>
+    <t>Singhania Tableting</t>
+  </si>
+  <si>
+    <t>anand@singhaniatableting.com</t>
+  </si>
+  <si>
+    <t>https://www.singhaniatableting.com/</t>
+  </si>
+  <si>
+    <t>Tablet Presses</t>
+  </si>
+  <si>
+    <t>https://www.maghrebpharma.com/en/exhibitor/, 2024</t>
+  </si>
+  <si>
+    <t>Anand Singhania</t>
+  </si>
+  <si>
+    <t>Head of Sales and Marketiing</t>
+  </si>
+  <si>
+    <t>+91-22 26858479</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>abhishek@singhaniatableting.com</t>
+  </si>
+  <si>
+    <t>Abhishek Indalkar</t>
+  </si>
+  <si>
+    <t>Marketing Manager</t>
+  </si>
+  <si>
+    <t>manoj@singhaniatableting.com</t>
+  </si>
+  <si>
+    <t>Manoj Singhania</t>
+  </si>
+  <si>
+    <t>Technical Director</t>
+  </si>
+  <si>
+    <t>meera@singhaniatableting.com</t>
+  </si>
+  <si>
+    <t>Meera Samani</t>
+  </si>
+  <si>
+    <t>Export Coordinator</t>
+  </si>
+  <si>
+    <t>SERAC - Group</t>
+  </si>
+  <si>
+    <t>thadam@serac.fr</t>
+  </si>
+  <si>
+    <t>http://www.serac-group.com/</t>
+  </si>
+  <si>
+    <t>Bottle manufacturing, Packaging machines</t>
+  </si>
+  <si>
+    <t>Thierry Adam</t>
+  </si>
+  <si>
+    <t>Serac Chief Executive officer</t>
+  </si>
+  <si>
+    <t>+33 2 43 60 28 28</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Shenzhen Bona Pharma Technology Co., Ltd</t>
+  </si>
+  <si>
+    <t>kelly.zhang@bona-cn.com</t>
+  </si>
+  <si>
+    <t>http://www.bona-cn.com/</t>
+  </si>
+  <si>
+    <t>Nasal Spray</t>
+  </si>
+  <si>
+    <t>Kelly Zhang</t>
+  </si>
+  <si>
+    <t>Director Of Marketing And Business Development</t>
+  </si>
+  <si>
+    <t>+86 755-2658 2006,86-755-2699 4208</t>
+  </si>
+  <si>
+    <t>SIEMENS Algerie</t>
+  </si>
+  <si>
+    <t>azzedine.ferhat_taleb@siemens.com</t>
+  </si>
+  <si>
+    <t>https://www.siemens.com/</t>
+  </si>
+  <si>
+    <t>Healthcare Equipment</t>
+  </si>
+  <si>
+    <t>Azzedine Ferhat</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Sino Pharmaceutical Equipment Development (Liaoyang) Co., Ltd</t>
+  </si>
+  <si>
+    <t>business3@sinoped.com.cn</t>
+  </si>
+  <si>
+    <t>https://www.sinoped.com/</t>
+  </si>
+  <si>
+    <t>Capsule Filling Machine</t>
+  </si>
+  <si>
+    <t>Han Zhou</t>
+  </si>
+  <si>
+    <t>Associate Director</t>
+  </si>
+  <si>
+    <t>dannie@sinoped.com.cn</t>
+  </si>
+  <si>
+    <t>Danielle Tian</t>
+  </si>
+  <si>
+    <t>Sales manager</t>
+  </si>
+  <si>
+    <t>david.mallet@doselec.com</t>
+  </si>
+  <si>
+    <t>https://www.serac-group.com/</t>
+  </si>
+  <si>
+    <t>Manufacturing Dairy products, syrups, drinks, oil, sauces,Syrups &amp; Drinks</t>
+  </si>
+  <si>
+    <t>David Mallet</t>
+  </si>
+  <si>
+    <t>Market Manager &amp; Blowing Business Development Manager</t>
+  </si>
+  <si>
+    <t>Shanghai Marya Phamaceutical Engineeing &amp; Project Co Ltd</t>
+  </si>
+  <si>
+    <t>jany@marya.com.cn</t>
+  </si>
+  <si>
+    <t>http://www.marya.com.cn/</t>
+  </si>
+  <si>
+    <t>Tablet And Capsule Counting Packing Equipment</t>
+  </si>
+  <si>
+    <t>Jany</t>
+  </si>
+  <si>
+    <t>+86 13 507449007</t>
+  </si>
+  <si>
+    <t>Shinva Medical Instrument Co.,Ltd.</t>
+  </si>
+  <si>
+    <t>sam@shinva.com</t>
+  </si>
+  <si>
+    <t>http://www.shinva.com/</t>
+  </si>
+  <si>
+    <t>Infection Control Products, Dental Products, Radiation And Diagnosis Products</t>
+  </si>
+  <si>
+    <t>Sam Zhang</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>+86 533 358 7720</t>
+  </si>
+  <si>
+    <t>info@sinoped.com.cn</t>
+  </si>
+  <si>
+    <t>business1@sinoped.com.cn</t>
+  </si>
+  <si>
+    <t>SEA Vision Srl</t>
+  </si>
+  <si>
+    <t>gbolzonello@seavision.it</t>
+  </si>
+  <si>
+    <t>http://www.seavision-group.com</t>
+  </si>
+  <si>
+    <t>Automations,Pharma Suits</t>
+  </si>
+  <si>
+    <t>Giulio Bolzonello</t>
+  </si>
+  <si>
+    <t>Product &amp; Business Development Manage</t>
+  </si>
+  <si>
+    <t>+39 0382 529576</t>
+  </si>
+  <si>
+    <t>Servolift GmbH</t>
+  </si>
+  <si>
+    <t>seigel@servolift.de</t>
+  </si>
+  <si>
+    <t>http://www.servolift.de/de/</t>
+  </si>
+  <si>
+    <t>Cleaning System, container mixers, blenders, pharma container</t>
+  </si>
+  <si>
+    <t>Christoph Seigel</t>
+  </si>
+  <si>
+    <t>+49 (781) 6100-0</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>kohler@servolift.de</t>
+  </si>
+  <si>
+    <t>Stefan Kohler</t>
+  </si>
+  <si>
+    <t>kaufman@servolift.de</t>
+  </si>
+  <si>
+    <t>Marc Kaufman</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Shandong Linuo Technical Glass Co., Ltd.</t>
+  </si>
+  <si>
+    <t>liusp@linuo.com</t>
+  </si>
+  <si>
+    <t>https://en.linuoglass.com/</t>
+  </si>
+  <si>
+    <t>Pharmaceutical packaging</t>
+  </si>
+  <si>
+    <t>Mr. Liu</t>
+  </si>
+  <si>
+    <t>+86 531-84759599</t>
+  </si>
+  <si>
+    <t>maggie@marya.com.cn</t>
+  </si>
+  <si>
+    <t>Maggie Marya</t>
+  </si>
+  <si>
+    <t>Sales Consultant</t>
+  </si>
+  <si>
+    <t>sales6@sinoped.com.cn</t>
+  </si>
+  <si>
+    <t>Sarl Sipa</t>
+  </si>
+  <si>
+    <t>contact@sipa-dz.com</t>
+  </si>
+  <si>
+    <t>https://www.sipa-dz.com/</t>
+  </si>
+  <si>
+    <t>Packaging Solutions</t>
+  </si>
+  <si>
+    <t>Jackson Djike</t>
+  </si>
+  <si>
+    <t>Director General</t>
+  </si>
+  <si>
+    <t>+213 (0) 24 74 91 30</t>
+  </si>
+  <si>
+    <t>tahar.bouzar@sipa-dz.com</t>
+  </si>
+  <si>
+    <t>Tahar Bouzar</t>
+  </si>
+  <si>
+    <t>Smart Building Solutions</t>
+  </si>
+  <si>
+    <t>contact@sbs-algeria.com.com</t>
+  </si>
+  <si>
+    <t>https://sbs-algeria.com/</t>
+  </si>
+  <si>
+    <t>Control and Power Cabinets</t>
+  </si>
+  <si>
+    <t>Poetic Tekstil ve Medikal Urunleri San. ve Tic. Ltd. Sti.</t>
+  </si>
+  <si>
+    <t>satisdestek@poetic.com.tr</t>
+  </si>
+  <si>
+    <t>https://poetic.com.tr/</t>
+  </si>
+  <si>
+    <t>Kids Mask</t>
+  </si>
+  <si>
+    <t>Competitor Data Search February 2024</t>
+  </si>
+  <si>
+    <t>+90 850 305 25 88</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>info@poetic.com.tr</t>
+  </si>
+  <si>
+    <t>Termik Clean</t>
+  </si>
+  <si>
+    <t>info@termikclean.com</t>
+  </si>
+  <si>
+    <t>https://termikclean.com/</t>
+  </si>
+  <si>
+    <t>Safety Mask</t>
+  </si>
+  <si>
+    <t>+90 222 221 4186</t>
+  </si>
+  <si>
+    <t>+90 532 314 0414</t>
+  </si>
+  <si>
+    <t>Suzhou Molarray Co., Ltd.</t>
+  </si>
+  <si>
+    <t>nicholas@molarray.com</t>
+  </si>
+  <si>
+    <t>http://www.molarray.com/</t>
+  </si>
+  <si>
+    <t>Nucleic Acid Extraction</t>
+  </si>
+  <si>
+    <t>Nicholas Wan</t>
+  </si>
+  <si>
+    <t>Sales Manager / Marketing</t>
+  </si>
+  <si>
+    <t>+86 18501505816</t>
+  </si>
+  <si>
+    <t>yumwu@yahoo.com</t>
+  </si>
+  <si>
+    <t>Yuan Wu</t>
+  </si>
+  <si>
+    <t>Suzhou Hengrun Import &amp; Export Corp. Ltd</t>
+  </si>
+  <si>
+    <t>charlesyao@hengrunchina.com</t>
+  </si>
+  <si>
+    <t>https://www.hengrunmedical.com/</t>
+  </si>
+  <si>
+    <t>Catheters / Urinary Catheters And Accessories</t>
+  </si>
+  <si>
+    <t>Charlesyao</t>
+  </si>
+  <si>
+    <t>+86 512 85550023, +86 138 06206049</t>
+  </si>
+  <si>
+    <t>F-E/email id available on Exhibitor List</t>
+  </si>
+  <si>
+    <t>olivia@hengrunchina.com</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Suzhou Hokapi Biomedical Engineering Co.Ltd.</t>
+  </si>
+  <si>
+    <t>arvin.li@hokapi.com</t>
+  </si>
+  <si>
+    <t>http://www.hokapi.net/</t>
+  </si>
+  <si>
+    <t>Clinical Laboratory Instruments</t>
+  </si>
+  <si>
+    <t>Arvin Li</t>
+  </si>
+  <si>
+    <t>Co-Founder</t>
+  </si>
+  <si>
+    <t>+86 512 66895309, +86 13691880357</t>
+  </si>
+  <si>
+    <t>Suzhou Lingwen Intelligent Equipment Co., Ltd.</t>
+  </si>
+  <si>
+    <t>sales@lingwen-sz.com</t>
+  </si>
+  <si>
+    <t>https://www.lingwen-sz.com/</t>
+  </si>
+  <si>
+    <t>Blood Collection Machine</t>
+  </si>
+  <si>
+    <t>Aimee Lee</t>
+  </si>
+  <si>
+    <t>+86 512 66936903, +86 18951111952</t>
+  </si>
+  <si>
+    <t>Suzhou Medical Appliance Factory Co. Ltd</t>
+  </si>
+  <si>
+    <t>wjj@hwato-med.com</t>
+  </si>
+  <si>
+    <t>http://www.hwato-med.com/</t>
+  </si>
+  <si>
+    <t>Acupuncture Equipment and Accessories</t>
+  </si>
+  <si>
+    <t>Xu Aimain</t>
+  </si>
+  <si>
+    <t>Vice Manager</t>
+  </si>
+  <si>
+    <t>+86 512 65155097, +86 13914078169</t>
+  </si>
+  <si>
+    <t>wuy@molarray.com</t>
+  </si>
+  <si>
+    <t>xiaozhou@hengrunchina.com</t>
+  </si>
+  <si>
+    <t>Xiao Zhou</t>
+  </si>
+  <si>
+    <t>Suzhou Haishen United Medical Device Associates Co.,Ltd.</t>
+  </si>
+  <si>
+    <t>sales@haishenmed.com</t>
+  </si>
+  <si>
+    <t>https://www.haishenmed.com/</t>
+  </si>
+  <si>
+    <t>Neurosurgical Instruments and Equipment</t>
+  </si>
+  <si>
+    <t>+86 512 65298558, +86 13812630838</t>
+  </si>
+  <si>
+    <t>SuZhou PiPi Medical Products Co., Ltd</t>
+  </si>
+  <si>
+    <t>paolo@pipicorporation.com</t>
+  </si>
+  <si>
+    <t>https://www.pipicorporation.com/</t>
+  </si>
+  <si>
+    <t>Baby Foot Printer</t>
+  </si>
+  <si>
+    <t>Paolo Long</t>
+  </si>
+  <si>
+    <t>Sales Director</t>
+  </si>
+  <si>
+    <t>+86 512 69579823</t>
+  </si>
+  <si>
+    <t>Raynor Medical Technology Co., Ltd.</t>
+  </si>
+  <si>
+    <t>michael.zhang@raynormed.com</t>
+  </si>
+  <si>
+    <t>http://en.raynormed.com/</t>
+  </si>
+  <si>
+    <t>Ultrasonic Surgical System</t>
+  </si>
+  <si>
+    <t>Michael Zhang</t>
+  </si>
+  <si>
+    <t>International Sales Director</t>
+  </si>
+  <si>
+    <t>+86 512 67547683</t>
+  </si>
+  <si>
+    <t>Suzhou Healthline Medical Co.,Ltd</t>
+  </si>
+  <si>
+    <t>asher.cao@healthline-medical.com</t>
+  </si>
+  <si>
+    <t>https://www.healthline-medical.com/</t>
+  </si>
+  <si>
+    <t>Bandages</t>
+  </si>
+  <si>
+    <t>Cao Asher</t>
+  </si>
+  <si>
+    <t>waltermiringu@gmail.com</t>
+  </si>
+  <si>
+    <t>Walter Nyagah</t>
+  </si>
+  <si>
+    <t>Pharmacist</t>
+  </si>
+  <si>
+    <t>+254 729857224</t>
+  </si>
+  <si>
+    <t>ASAL Pharma Corporation</t>
+  </si>
+  <si>
+    <t>asalpharma200@gmail.com</t>
+  </si>
+  <si>
+    <t>https://asalpharma.com/</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Products / Cezol-40 mg Capsule</t>
+  </si>
+  <si>
+    <t>+252 1 658042 / 615 54 7 775</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Somcare General Trading Co., Ltd</t>
+  </si>
+  <si>
+    <t>admin@somcaregt.com</t>
+  </si>
+  <si>
+    <t>https://www.somcaregt.com/</t>
+  </si>
+  <si>
+    <t>Tablets, Capsules</t>
+  </si>
+  <si>
+    <t>Abdulkarim Awil</t>
+  </si>
+  <si>
+    <t>+968 9970 2744 (W)</t>
+  </si>
+  <si>
+    <t>somcaregt@gmail.com</t>
+  </si>
+  <si>
+    <t>Mubarak Pharmacy j.j-yar</t>
+  </si>
+  <si>
+    <t>info@mubaarakpharma.com</t>
+  </si>
+  <si>
+    <t>https://mubaarakpharma.com/</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Products</t>
+  </si>
+  <si>
+    <t>Ben Folklore</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>+252 2 524947</t>
+  </si>
+  <si>
+    <t>Hayat</t>
+  </si>
+  <si>
+    <t>esra.goktepe@hayat.com.tr</t>
+  </si>
+  <si>
+    <t>https://www.hayat.com/</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Esra Goktepe</t>
+  </si>
+  <si>
+    <t>Global Marketing Director</t>
+  </si>
+  <si>
+    <t>+90 2165544000</t>
+  </si>
+  <si>
+    <t>info@asalpharma.com</t>
+  </si>
+  <si>
+    <t>Banadir Pharma Company Ltd</t>
+  </si>
+  <si>
+    <t>banadirpharma@hotmail.com</t>
+  </si>
+  <si>
+    <t>http://banadirpharma.com/</t>
+  </si>
+  <si>
+    <t>Respiratory Products</t>
+  </si>
+  <si>
+    <t>+252 613333124</t>
+  </si>
+  <si>
+    <t>cbasdemir@hayat.com.tr</t>
+  </si>
+  <si>
+    <t>Celik Basdemir</t>
+  </si>
+  <si>
+    <t>General Manager/Managing Director</t>
+  </si>
+  <si>
+    <t>gegilmez@hayat.com.tr</t>
+  </si>
+  <si>
+    <t>Gulhan Egilmez</t>
+  </si>
+  <si>
+    <t>Rasmi Pharmaceutical Company</t>
+  </si>
+  <si>
+    <t>info@rasmipharma.com</t>
+  </si>
+  <si>
+    <t>https://rasmipharma.com/</t>
+  </si>
+  <si>
+    <t>Abdi Rahman Ahmed</t>
+  </si>
+  <si>
+    <t>esen@hayat.com.tr</t>
+  </si>
+  <si>
+    <t>Emre Sen</t>
+  </si>
+  <si>
+    <t>General Manager/ Managing Director</t>
+  </si>
+  <si>
+    <t>Consult-Afya Telehealth</t>
+  </si>
+  <si>
+    <t>isaacogutu66@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.consult.afyafitness20.com</t>
+  </si>
+  <si>
+    <t>Medical Products</t>
+  </si>
+  <si>
+    <t>Isaac Ogutu</t>
+  </si>
+  <si>
+    <t>Founder</t>
+  </si>
+  <si>
+    <t>+254 720050551</t>
+  </si>
+  <si>
+    <t>Fujitok Corporation</t>
+  </si>
+  <si>
+    <t>contact@fujitok.co.jp</t>
+  </si>
+  <si>
+    <t>http://www.fujitok.com/</t>
+  </si>
+  <si>
+    <t>Optical Components</t>
+  </si>
+  <si>
+    <t>https://medica.messe-dus.co.jp/fileadmin/medica/uploads/MedicaCompamed2016_JP-Directory.pdf, 2023</t>
+  </si>
+  <si>
+    <t>Atsuko Nishi</t>
+  </si>
+  <si>
+    <t>+81 3 39091791</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Genesis Co., Ltd.</t>
+  </si>
+  <si>
+    <t>information@genesis-j.com</t>
+  </si>
+  <si>
+    <t>http://www.genesis-j.com/</t>
+  </si>
+  <si>
+    <t>OEM Devices</t>
+  </si>
+  <si>
+    <t>Kazuhiro Usui</t>
+  </si>
+  <si>
+    <t>President &amp; CEO</t>
+  </si>
+  <si>
+    <t>+81 29-352-0201</t>
   </si>
 </sst>
 </file>
@@ -391,12 +1546,13 @@
   <dimension ref="A1:Q172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD173"/>
+      <selection activeCell="A2" sqref="A2:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -453,254 +1609,3380 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O2" s="1"/>
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="1">
+        <v>45342.48810185185</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O3" s="1"/>
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="1">
+        <v>45342.48810185185</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O4" s="1"/>
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="1">
+        <v>45342.48810185185</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O5" s="1"/>
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5">
+        <f>86-15150457575</f>
+        <v>-15150457489</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="1">
+        <v>45342.48810185185</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O6" s="1"/>
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="1">
+        <v>45342.48810185185</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O7" s="1"/>
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="1">
+        <v>45342.48810185185</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O8" s="1"/>
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="1">
+        <v>45342.48810185185</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O9" s="1"/>
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="1">
+        <v>45342.48810185185</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O10" s="1"/>
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10">
+        <v>94774356165</v>
+      </c>
+      <c r="K10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="1">
+        <v>45342.48810185185</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O11" s="1"/>
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="1">
+        <v>45342.454583333332</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O12" s="1"/>
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="1">
+        <v>45342.454583333332</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O13" s="1"/>
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="1">
+        <v>45342.454583333332</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O14" s="1"/>
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="1">
+        <v>45342.454583333332</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O15" s="1"/>
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" t="s">
+        <v>103</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="1">
+        <v>45342.454583333332</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O40" s="1"/>
-    </row>
-    <row r="41" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O45" s="1"/>
-    </row>
-    <row r="46" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O47" s="1"/>
-    </row>
-    <row r="48" spans="15:15" x14ac:dyDescent="0.3">
-      <c r="O48" s="1"/>
-    </row>
-    <row r="49" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O49" s="1"/>
-    </row>
-    <row r="50" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O50" s="1"/>
-    </row>
-    <row r="51" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O51" s="1"/>
-    </row>
-    <row r="52" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O52" s="1"/>
-    </row>
-    <row r="53" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-    </row>
-    <row r="56" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-    </row>
-    <row r="57" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-    </row>
-    <row r="58" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-    </row>
-    <row r="59" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-    </row>
-    <row r="60" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-    </row>
-    <row r="61" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-    </row>
-    <row r="62" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-    </row>
-    <row r="63" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-    </row>
-    <row r="64" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-    </row>
-    <row r="65" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-    </row>
-    <row r="66" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O66" s="1"/>
-    </row>
-    <row r="67" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O70" s="1"/>
-    </row>
-    <row r="71" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O71" s="1"/>
-    </row>
-    <row r="72" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O72" s="1"/>
-    </row>
-    <row r="73" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O73" s="1"/>
-    </row>
-    <row r="74" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O74" s="1"/>
-    </row>
-    <row r="75" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O75" s="1"/>
-    </row>
-    <row r="76" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O76" s="1"/>
-    </row>
-    <row r="77" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O77" s="1"/>
-    </row>
-    <row r="78" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O78" s="1"/>
-    </row>
-    <row r="79" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O79" s="1"/>
-    </row>
-    <row r="80" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O80" s="1"/>
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="1">
+        <v>45342.454583333332</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" t="s">
+        <v>111</v>
+      </c>
+      <c r="M17" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="1">
+        <v>45342.454583333332</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="1">
+        <v>45342.454583333332</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" t="s">
+        <v>119</v>
+      </c>
+      <c r="L19" t="s">
+        <v>111</v>
+      </c>
+      <c r="M19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="1">
+        <v>45342.454583333332</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="1">
+        <v>45342.454583333332</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="1">
+        <v>45342.454583333332</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="1">
+        <v>45342.454583333332</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" t="s">
+        <v>119</v>
+      </c>
+      <c r="L23" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="1">
+        <v>45342.454583333332</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s">
+        <v>103</v>
+      </c>
+      <c r="L24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="1">
+        <v>45342.454583333332</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" t="s">
+        <v>137</v>
+      </c>
+      <c r="J25" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" t="s">
+        <v>140</v>
+      </c>
+      <c r="O25" s="1">
+        <v>45341.745567129627</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" t="s">
+        <v>153</v>
+      </c>
+      <c r="I27" t="s">
+        <v>149</v>
+      </c>
+      <c r="K27" t="s">
+        <v>150</v>
+      </c>
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" t="s">
+        <v>156</v>
+      </c>
+      <c r="I28" t="s">
+        <v>149</v>
+      </c>
+      <c r="K28" t="s">
+        <v>150</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O28" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" t="s">
+        <v>158</v>
+      </c>
+      <c r="H29" t="s">
+        <v>159</v>
+      </c>
+      <c r="I29" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" t="s">
+        <v>150</v>
+      </c>
+      <c r="L29" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" t="s">
+        <v>165</v>
+      </c>
+      <c r="I30" t="s">
+        <v>166</v>
+      </c>
+      <c r="K30" t="s">
+        <v>167</v>
+      </c>
+      <c r="L30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M30" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" t="s">
+        <v>174</v>
+      </c>
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" t="s">
+        <v>83</v>
+      </c>
+      <c r="K32" t="s">
+        <v>180</v>
+      </c>
+      <c r="L32" t="s">
+        <v>140</v>
+      </c>
+      <c r="O32" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" t="s">
+        <v>185</v>
+      </c>
+      <c r="H33" t="s">
+        <v>186</v>
+      </c>
+      <c r="I33">
+        <v>8618041922202</v>
+      </c>
+      <c r="J33">
+        <v>8618041922202</v>
+      </c>
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" t="s">
+        <v>28</v>
+      </c>
+      <c r="O33" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" t="s">
+        <v>189</v>
+      </c>
+      <c r="I34">
+        <v>8618041922202</v>
+      </c>
+      <c r="J34">
+        <v>8618041922202</v>
+      </c>
+      <c r="K34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" t="s">
+        <v>193</v>
+      </c>
+      <c r="H35" t="s">
+        <v>194</v>
+      </c>
+      <c r="I35" t="s">
+        <v>166</v>
+      </c>
+      <c r="K35" t="s">
+        <v>167</v>
+      </c>
+      <c r="L35" t="s">
+        <v>111</v>
+      </c>
+      <c r="M35" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" t="s">
+        <v>200</v>
+      </c>
+      <c r="K36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" t="s">
+        <v>206</v>
+      </c>
+      <c r="I37" t="s">
+        <v>207</v>
+      </c>
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" t="s">
+        <v>185</v>
+      </c>
+      <c r="H38" t="s">
+        <v>186</v>
+      </c>
+      <c r="I38">
+        <v>8618041922202</v>
+      </c>
+      <c r="J38">
+        <v>8618041922202</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" t="s">
+        <v>188</v>
+      </c>
+      <c r="H39" t="s">
+        <v>189</v>
+      </c>
+      <c r="I39">
+        <v>8618041922202</v>
+      </c>
+      <c r="J39">
+        <v>8618041922202</v>
+      </c>
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" t="s">
+        <v>28</v>
+      </c>
+      <c r="O39" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40" t="s">
+        <v>214</v>
+      </c>
+      <c r="H40" t="s">
+        <v>215</v>
+      </c>
+      <c r="I40" t="s">
+        <v>216</v>
+      </c>
+      <c r="K40" t="s">
+        <v>119</v>
+      </c>
+      <c r="L40" t="s">
+        <v>111</v>
+      </c>
+      <c r="M40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O40" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" t="s">
+        <v>221</v>
+      </c>
+      <c r="H41" t="s">
+        <v>153</v>
+      </c>
+      <c r="I41" t="s">
+        <v>222</v>
+      </c>
+      <c r="K41" t="s">
+        <v>223</v>
+      </c>
+      <c r="L41" t="s">
+        <v>111</v>
+      </c>
+      <c r="M41" t="s">
+        <v>28</v>
+      </c>
+      <c r="O41" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42" t="s">
+        <v>220</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G42" t="s">
+        <v>225</v>
+      </c>
+      <c r="H42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42" t="s">
+        <v>222</v>
+      </c>
+      <c r="K42" t="s">
+        <v>223</v>
+      </c>
+      <c r="L42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M42" t="s">
+        <v>28</v>
+      </c>
+      <c r="O42" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" t="s">
+        <v>226</v>
+      </c>
+      <c r="C43" t="s">
+        <v>219</v>
+      </c>
+      <c r="D43" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" t="s">
+        <v>227</v>
+      </c>
+      <c r="H43" t="s">
+        <v>228</v>
+      </c>
+      <c r="I43" t="s">
+        <v>222</v>
+      </c>
+      <c r="K43" t="s">
+        <v>223</v>
+      </c>
+      <c r="L43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M43" t="s">
+        <v>28</v>
+      </c>
+      <c r="O43" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" t="s">
+        <v>233</v>
+      </c>
+      <c r="I44" t="s">
+        <v>234</v>
+      </c>
+      <c r="K44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" t="s">
+        <v>28</v>
+      </c>
+      <c r="O44" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" t="s">
+        <v>235</v>
+      </c>
+      <c r="C45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" t="s">
+        <v>198</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
+        <v>146</v>
+      </c>
+      <c r="G45" t="s">
+        <v>236</v>
+      </c>
+      <c r="H45" t="s">
+        <v>237</v>
+      </c>
+      <c r="I45" t="s">
+        <v>200</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" t="s">
+        <v>28</v>
+      </c>
+      <c r="O45" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46">
+        <v>8618041922202</v>
+      </c>
+      <c r="J46">
+        <v>8618041922202</v>
+      </c>
+      <c r="K46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" t="s">
+        <v>28</v>
+      </c>
+      <c r="O46" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" t="s">
+        <v>242</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" t="s">
+        <v>243</v>
+      </c>
+      <c r="H47" t="s">
+        <v>244</v>
+      </c>
+      <c r="I47" t="s">
+        <v>245</v>
+      </c>
+      <c r="K47" t="s">
+        <v>180</v>
+      </c>
+      <c r="L47" t="s">
+        <v>140</v>
+      </c>
+      <c r="M47" t="s">
+        <v>28</v>
+      </c>
+      <c r="O47" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>239</v>
+      </c>
+      <c r="B48" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" t="s">
+        <v>242</v>
+      </c>
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" t="s">
+        <v>146</v>
+      </c>
+      <c r="G48" t="s">
+        <v>247</v>
+      </c>
+      <c r="I48" t="s">
+        <v>245</v>
+      </c>
+      <c r="K48" t="s">
+        <v>180</v>
+      </c>
+      <c r="L48" t="s">
+        <v>140</v>
+      </c>
+      <c r="M48" t="s">
+        <v>28</v>
+      </c>
+      <c r="O48" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" t="s">
+        <v>250</v>
+      </c>
+      <c r="D49" t="s">
+        <v>251</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" t="s">
+        <v>146</v>
+      </c>
+      <c r="I49" t="s">
+        <v>245</v>
+      </c>
+      <c r="K49" t="s">
+        <v>180</v>
+      </c>
+      <c r="L49" t="s">
+        <v>140</v>
+      </c>
+      <c r="M49" t="s">
+        <v>28</v>
+      </c>
+      <c r="O49" s="1">
+        <v>45341.745254629626</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>252</v>
+      </c>
+      <c r="B50" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50" t="s">
+        <v>255</v>
+      </c>
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" t="s">
+        <v>256</v>
+      </c>
+      <c r="J50" t="s">
+        <v>257</v>
+      </c>
+      <c r="K50" t="s">
+        <v>258</v>
+      </c>
+      <c r="L50" t="s">
+        <v>27</v>
+      </c>
+      <c r="O50" s="1">
+        <v>45341.743877314817</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" t="s">
+        <v>259</v>
+      </c>
+      <c r="C51" t="s">
+        <v>254</v>
+      </c>
+      <c r="D51" t="s">
+        <v>255</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" t="s">
+        <v>256</v>
+      </c>
+      <c r="J51" t="s">
+        <v>257</v>
+      </c>
+      <c r="K51" t="s">
+        <v>258</v>
+      </c>
+      <c r="L51" t="s">
+        <v>27</v>
+      </c>
+      <c r="O51" s="1">
+        <v>45341.743877314817</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>260</v>
+      </c>
+      <c r="B52" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" t="s">
+        <v>262</v>
+      </c>
+      <c r="D52" t="s">
+        <v>263</v>
+      </c>
+      <c r="E52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" t="s">
+        <v>256</v>
+      </c>
+      <c r="I52" t="s">
+        <v>264</v>
+      </c>
+      <c r="J52" t="s">
+        <v>265</v>
+      </c>
+      <c r="K52" t="s">
+        <v>258</v>
+      </c>
+      <c r="L52" t="s">
+        <v>27</v>
+      </c>
+      <c r="O52" s="1">
+        <v>45341.743877314817</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>266</v>
+      </c>
+      <c r="B53" t="s">
+        <v>267</v>
+      </c>
+      <c r="C53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D53" t="s">
+        <v>269</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>270</v>
+      </c>
+      <c r="H53" t="s">
+        <v>271</v>
+      </c>
+      <c r="I53" t="s">
+        <v>272</v>
+      </c>
+      <c r="K53" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" t="s">
+        <v>28</v>
+      </c>
+      <c r="O53" s="1">
+        <v>45341.74355324074</v>
+      </c>
+      <c r="P53" s="1">
+        <v>45341.74391203704</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>266</v>
+      </c>
+      <c r="B54" t="s">
+        <v>273</v>
+      </c>
+      <c r="C54" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" t="s">
+        <v>269</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>274</v>
+      </c>
+      <c r="H54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" t="s">
+        <v>272</v>
+      </c>
+      <c r="K54" t="s">
+        <v>26</v>
+      </c>
+      <c r="L54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" t="s">
+        <v>28</v>
+      </c>
+      <c r="O54" s="1">
+        <v>45341.74355324074</v>
+      </c>
+      <c r="P54" s="1">
+        <v>45341.74391203704</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>275</v>
+      </c>
+      <c r="B55" t="s">
+        <v>276</v>
+      </c>
+      <c r="C55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D55" t="s">
+        <v>278</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>279</v>
+      </c>
+      <c r="I55" t="s">
+        <v>280</v>
+      </c>
+      <c r="K55" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" t="s">
+        <v>27</v>
+      </c>
+      <c r="M55" t="s">
+        <v>281</v>
+      </c>
+      <c r="O55" s="1">
+        <v>45341.74355324074</v>
+      </c>
+      <c r="P55" s="1">
+        <v>45341.74391203704</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>275</v>
+      </c>
+      <c r="B56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C56" t="s">
+        <v>277</v>
+      </c>
+      <c r="D56" t="s">
+        <v>278</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>283</v>
+      </c>
+      <c r="I56" t="s">
+        <v>280</v>
+      </c>
+      <c r="K56" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56" t="s">
+        <v>27</v>
+      </c>
+      <c r="M56" t="s">
+        <v>281</v>
+      </c>
+      <c r="O56" s="1">
+        <v>45341.74355324074</v>
+      </c>
+      <c r="P56" s="1">
+        <v>45341.74391203704</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" t="s">
+        <v>285</v>
+      </c>
+      <c r="C57" t="s">
+        <v>286</v>
+      </c>
+      <c r="D57" t="s">
+        <v>287</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>288</v>
+      </c>
+      <c r="H57" t="s">
+        <v>289</v>
+      </c>
+      <c r="I57" t="s">
+        <v>290</v>
+      </c>
+      <c r="K57" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" t="s">
+        <v>27</v>
+      </c>
+      <c r="M57" t="s">
+        <v>28</v>
+      </c>
+      <c r="O57" s="1">
+        <v>45341.74355324074</v>
+      </c>
+      <c r="P57" s="1">
+        <v>45341.74391203704</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>291</v>
+      </c>
+      <c r="B58" t="s">
+        <v>292</v>
+      </c>
+      <c r="C58" t="s">
+        <v>293</v>
+      </c>
+      <c r="D58" t="s">
+        <v>294</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>295</v>
+      </c>
+      <c r="H58" t="s">
+        <v>83</v>
+      </c>
+      <c r="I58" t="s">
+        <v>296</v>
+      </c>
+      <c r="K58" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" t="s">
+        <v>27</v>
+      </c>
+      <c r="M58" t="s">
+        <v>28</v>
+      </c>
+      <c r="O58" s="1">
+        <v>45341.74355324074</v>
+      </c>
+      <c r="P58" s="1">
+        <v>45341.74391203704</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>297</v>
+      </c>
+      <c r="B59" t="s">
+        <v>298</v>
+      </c>
+      <c r="C59" t="s">
+        <v>299</v>
+      </c>
+      <c r="D59" t="s">
+        <v>300</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>301</v>
+      </c>
+      <c r="H59" t="s">
+        <v>302</v>
+      </c>
+      <c r="I59" t="s">
+        <v>303</v>
+      </c>
+      <c r="K59" t="s">
+        <v>26</v>
+      </c>
+      <c r="L59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" t="s">
+        <v>28</v>
+      </c>
+      <c r="O59" s="1">
+        <v>45341.74355324074</v>
+      </c>
+      <c r="P59" s="1">
+        <v>45341.74391203704</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>266</v>
+      </c>
+      <c r="B60" t="s">
+        <v>304</v>
+      </c>
+      <c r="C60" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" t="s">
+        <v>269</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>274</v>
+      </c>
+      <c r="H60" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" t="s">
+        <v>272</v>
+      </c>
+      <c r="K60" t="s">
+        <v>26</v>
+      </c>
+      <c r="L60" t="s">
+        <v>27</v>
+      </c>
+      <c r="M60" t="s">
+        <v>28</v>
+      </c>
+      <c r="O60" s="1">
+        <v>45341.74355324074</v>
+      </c>
+      <c r="P60" s="1">
+        <v>45341.74391203704</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>275</v>
+      </c>
+      <c r="B61" t="s">
+        <v>305</v>
+      </c>
+      <c r="C61" t="s">
+        <v>277</v>
+      </c>
+      <c r="D61" t="s">
+        <v>278</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>306</v>
+      </c>
+      <c r="I61" t="s">
+        <v>280</v>
+      </c>
+      <c r="K61" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" t="s">
+        <v>27</v>
+      </c>
+      <c r="M61" t="s">
+        <v>281</v>
+      </c>
+      <c r="O61" s="1">
+        <v>45341.74355324074</v>
+      </c>
+      <c r="P61" s="1">
+        <v>45341.74391203704</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>307</v>
+      </c>
+      <c r="B62" t="s">
+        <v>308</v>
+      </c>
+      <c r="C62" t="s">
+        <v>309</v>
+      </c>
+      <c r="D62" t="s">
+        <v>310</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" t="s">
+        <v>311</v>
+      </c>
+      <c r="K62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62" t="s">
+        <v>27</v>
+      </c>
+      <c r="M62" t="s">
+        <v>28</v>
+      </c>
+      <c r="O62" s="1">
+        <v>45341.74355324074</v>
+      </c>
+      <c r="P62" s="1">
+        <v>45341.74391203704</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>312</v>
+      </c>
+      <c r="B63" t="s">
+        <v>313</v>
+      </c>
+      <c r="C63" t="s">
+        <v>314</v>
+      </c>
+      <c r="D63" t="s">
+        <v>315</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" t="s">
+        <v>316</v>
+      </c>
+      <c r="H63" t="s">
+        <v>317</v>
+      </c>
+      <c r="I63" t="s">
+        <v>318</v>
+      </c>
+      <c r="K63" t="s">
+        <v>26</v>
+      </c>
+      <c r="L63" t="s">
+        <v>27</v>
+      </c>
+      <c r="M63" t="s">
+        <v>28</v>
+      </c>
+      <c r="O63" s="1">
+        <v>45341.74355324074</v>
+      </c>
+      <c r="P63" s="1">
+        <v>45341.74391203704</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>319</v>
+      </c>
+      <c r="B64" t="s">
+        <v>320</v>
+      </c>
+      <c r="C64" t="s">
+        <v>321</v>
+      </c>
+      <c r="D64" t="s">
+        <v>322</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>323</v>
+      </c>
+      <c r="H64" t="s">
+        <v>324</v>
+      </c>
+      <c r="I64" t="s">
+        <v>325</v>
+      </c>
+      <c r="K64" t="s">
+        <v>26</v>
+      </c>
+      <c r="L64" t="s">
+        <v>27</v>
+      </c>
+      <c r="M64" t="s">
+        <v>28</v>
+      </c>
+      <c r="O64" s="1">
+        <v>45341.74355324074</v>
+      </c>
+      <c r="P64" s="1">
+        <v>45341.74391203704</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>326</v>
+      </c>
+      <c r="B65" t="s">
+        <v>327</v>
+      </c>
+      <c r="C65" t="s">
+        <v>328</v>
+      </c>
+      <c r="D65" t="s">
+        <v>329</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>330</v>
+      </c>
+      <c r="I65">
+        <f>86-512-67571056</f>
+        <v>-67571482</v>
+      </c>
+      <c r="K65" t="s">
+        <v>26</v>
+      </c>
+      <c r="L65" t="s">
+        <v>27</v>
+      </c>
+      <c r="M65" t="s">
+        <v>281</v>
+      </c>
+      <c r="O65" s="1">
+        <v>45341.74355324074</v>
+      </c>
+      <c r="P65" s="1">
+        <v>45341.74391203704</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>331</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" t="s">
+        <v>136</v>
+      </c>
+      <c r="G66" t="s">
+        <v>332</v>
+      </c>
+      <c r="H66" t="s">
+        <v>333</v>
+      </c>
+      <c r="J66" t="s">
+        <v>334</v>
+      </c>
+      <c r="K66" t="s">
+        <v>139</v>
+      </c>
+      <c r="L66" t="s">
+        <v>140</v>
+      </c>
+      <c r="O66" s="1">
+        <v>45341.742569444446</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>335</v>
+      </c>
+      <c r="B67" t="s">
+        <v>336</v>
+      </c>
+      <c r="C67" t="s">
+        <v>337</v>
+      </c>
+      <c r="D67" t="s">
+        <v>338</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" t="s">
+        <v>256</v>
+      </c>
+      <c r="I67" t="s">
+        <v>339</v>
+      </c>
+      <c r="K67" t="s">
+        <v>340</v>
+      </c>
+      <c r="L67" t="s">
+        <v>140</v>
+      </c>
+      <c r="O67" s="1">
+        <v>45341.740729166668</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>341</v>
+      </c>
+      <c r="B68" t="s">
+        <v>342</v>
+      </c>
+      <c r="C68" t="s">
+        <v>343</v>
+      </c>
+      <c r="D68" t="s">
+        <v>344</v>
+      </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" t="s">
+        <v>256</v>
+      </c>
+      <c r="G68" t="s">
+        <v>345</v>
+      </c>
+      <c r="H68" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" t="s">
+        <v>346</v>
+      </c>
+      <c r="K68" t="s">
+        <v>340</v>
+      </c>
+      <c r="L68" t="s">
+        <v>140</v>
+      </c>
+      <c r="O68" s="1">
+        <v>45341.740729166668</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>341</v>
+      </c>
+      <c r="B69" t="s">
+        <v>347</v>
+      </c>
+      <c r="C69" t="s">
+        <v>343</v>
+      </c>
+      <c r="D69" t="s">
+        <v>344</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" t="s">
+        <v>256</v>
+      </c>
+      <c r="G69" t="s">
+        <v>345</v>
+      </c>
+      <c r="H69" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69" t="s">
+        <v>346</v>
+      </c>
+      <c r="K69" t="s">
+        <v>340</v>
+      </c>
+      <c r="L69" t="s">
+        <v>140</v>
+      </c>
+      <c r="O69" s="1">
+        <v>45341.740729166668</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>348</v>
+      </c>
+      <c r="B70" t="s">
+        <v>349</v>
+      </c>
+      <c r="C70" t="s">
+        <v>350</v>
+      </c>
+      <c r="D70" t="s">
+        <v>351</v>
+      </c>
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" t="s">
+        <v>256</v>
+      </c>
+      <c r="G70" t="s">
+        <v>352</v>
+      </c>
+      <c r="H70" t="s">
+        <v>353</v>
+      </c>
+      <c r="I70" t="s">
+        <v>354</v>
+      </c>
+      <c r="K70" t="s">
+        <v>340</v>
+      </c>
+      <c r="L70" t="s">
+        <v>140</v>
+      </c>
+      <c r="O70" s="1">
+        <v>45341.740729166668</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>355</v>
+      </c>
+      <c r="B71" t="s">
+        <v>356</v>
+      </c>
+      <c r="C71" t="s">
+        <v>357</v>
+      </c>
+      <c r="D71" t="s">
+        <v>358</v>
+      </c>
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" t="s">
+        <v>256</v>
+      </c>
+      <c r="G71" t="s">
+        <v>359</v>
+      </c>
+      <c r="H71" t="s">
+        <v>360</v>
+      </c>
+      <c r="I71" t="s">
+        <v>361</v>
+      </c>
+      <c r="K71" t="s">
+        <v>258</v>
+      </c>
+      <c r="L71" t="s">
+        <v>27</v>
+      </c>
+      <c r="O71" s="1">
+        <v>45341.740729166668</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>335</v>
+      </c>
+      <c r="B72" t="s">
+        <v>362</v>
+      </c>
+      <c r="C72" t="s">
+        <v>337</v>
+      </c>
+      <c r="D72" t="s">
+        <v>338</v>
+      </c>
+      <c r="E72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" t="s">
+        <v>256</v>
+      </c>
+      <c r="I72" t="s">
+        <v>339</v>
+      </c>
+      <c r="K72" t="s">
+        <v>340</v>
+      </c>
+      <c r="L72" t="s">
+        <v>140</v>
+      </c>
+      <c r="O72" s="1">
+        <v>45341.740729166668</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>363</v>
+      </c>
+      <c r="B73" t="s">
+        <v>364</v>
+      </c>
+      <c r="C73" t="s">
+        <v>365</v>
+      </c>
+      <c r="D73" t="s">
+        <v>366</v>
+      </c>
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" t="s">
+        <v>256</v>
+      </c>
+      <c r="I73" t="s">
+        <v>367</v>
+      </c>
+      <c r="K73" t="s">
+        <v>340</v>
+      </c>
+      <c r="L73" t="s">
+        <v>140</v>
+      </c>
+      <c r="O73" s="1">
+        <v>45341.740729166668</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>355</v>
+      </c>
+      <c r="B74" t="s">
+        <v>368</v>
+      </c>
+      <c r="C74" t="s">
+        <v>357</v>
+      </c>
+      <c r="D74" t="s">
+        <v>358</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" t="s">
+        <v>256</v>
+      </c>
+      <c r="G74" t="s">
+        <v>369</v>
+      </c>
+      <c r="H74" t="s">
+        <v>370</v>
+      </c>
+      <c r="I74" t="s">
+        <v>361</v>
+      </c>
+      <c r="K74" t="s">
+        <v>258</v>
+      </c>
+      <c r="L74" t="s">
+        <v>27</v>
+      </c>
+      <c r="O74" s="1">
+        <v>45341.740729166668</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>355</v>
+      </c>
+      <c r="B75" t="s">
+        <v>371</v>
+      </c>
+      <c r="C75" t="s">
+        <v>357</v>
+      </c>
+      <c r="D75" t="s">
+        <v>358</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" t="s">
+        <v>256</v>
+      </c>
+      <c r="G75" t="s">
+        <v>372</v>
+      </c>
+      <c r="H75" t="s">
+        <v>360</v>
+      </c>
+      <c r="I75" t="s">
+        <v>361</v>
+      </c>
+      <c r="K75" t="s">
+        <v>258</v>
+      </c>
+      <c r="L75" t="s">
+        <v>27</v>
+      </c>
+      <c r="O75" s="1">
+        <v>45341.740729166668</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>373</v>
+      </c>
+      <c r="B76" t="s">
+        <v>374</v>
+      </c>
+      <c r="C76" t="s">
+        <v>375</v>
+      </c>
+      <c r="D76" t="s">
+        <v>351</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" t="s">
+        <v>256</v>
+      </c>
+      <c r="G76" t="s">
+        <v>376</v>
+      </c>
+      <c r="H76" t="s">
+        <v>353</v>
+      </c>
+      <c r="I76">
+        <v>252615510576</v>
+      </c>
+      <c r="K76" t="s">
+        <v>340</v>
+      </c>
+      <c r="L76" t="s">
+        <v>140</v>
+      </c>
+      <c r="O76" s="1">
+        <v>45341.740729166668</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>355</v>
+      </c>
+      <c r="B77" t="s">
+        <v>377</v>
+      </c>
+      <c r="C77" t="s">
+        <v>357</v>
+      </c>
+      <c r="D77" t="s">
+        <v>358</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" t="s">
+        <v>256</v>
+      </c>
+      <c r="G77" t="s">
+        <v>378</v>
+      </c>
+      <c r="H77" t="s">
+        <v>379</v>
+      </c>
+      <c r="I77" t="s">
+        <v>361</v>
+      </c>
+      <c r="K77" t="s">
+        <v>258</v>
+      </c>
+      <c r="L77" t="s">
+        <v>27</v>
+      </c>
+      <c r="O77" s="1">
+        <v>45341.740729166668</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>380</v>
+      </c>
+      <c r="B78" t="s">
+        <v>381</v>
+      </c>
+      <c r="C78" t="s">
+        <v>382</v>
+      </c>
+      <c r="D78" t="s">
+        <v>383</v>
+      </c>
+      <c r="E78" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" t="s">
+        <v>136</v>
+      </c>
+      <c r="G78" t="s">
+        <v>384</v>
+      </c>
+      <c r="H78" t="s">
+        <v>385</v>
+      </c>
+      <c r="J78" t="s">
+        <v>386</v>
+      </c>
+      <c r="K78" t="s">
+        <v>139</v>
+      </c>
+      <c r="L78" t="s">
+        <v>140</v>
+      </c>
+      <c r="O78" s="1">
+        <v>45341.739537037036</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>387</v>
+      </c>
+      <c r="B79" t="s">
+        <v>388</v>
+      </c>
+      <c r="C79" t="s">
+        <v>389</v>
+      </c>
+      <c r="D79" t="s">
+        <v>390</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" t="s">
+        <v>391</v>
+      </c>
+      <c r="G79" t="s">
+        <v>392</v>
+      </c>
+      <c r="H79" t="s">
+        <v>88</v>
+      </c>
+      <c r="I79" t="s">
+        <v>393</v>
+      </c>
+      <c r="K79" t="s">
+        <v>394</v>
+      </c>
+      <c r="L79" t="s">
+        <v>27</v>
+      </c>
+      <c r="O79" s="1">
+        <v>45341.734895833331</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>395</v>
+      </c>
+      <c r="B80" t="s">
+        <v>396</v>
+      </c>
+      <c r="C80" t="s">
+        <v>397</v>
+      </c>
+      <c r="D80" t="s">
+        <v>398</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" t="s">
+        <v>391</v>
+      </c>
+      <c r="G80" t="s">
+        <v>399</v>
+      </c>
+      <c r="H80" t="s">
+        <v>400</v>
+      </c>
+      <c r="I80" t="s">
+        <v>401</v>
+      </c>
+      <c r="K80" t="s">
+        <v>394</v>
+      </c>
+      <c r="L80" t="s">
+        <v>27</v>
+      </c>
+      <c r="O80" s="1">
+        <v>45341.734895833331</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.3">
       <c r="O81" s="1"/>
